--- a/数据/羁绊属性/种族羁绊属性表.xlsx
+++ b/数据/羁绊属性/种族羁绊属性表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10921\Desktop\yun\game_simulation_of_yunding\数据\羁绊属性\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A152B1-6AB8-402A-AB0F-B5C1F28156E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3237EA55-E7AB-4389-BFF4-5C880E8DD3CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6090" yWindow="3330" windowWidth="20520" windowHeight="12940" xr2:uid="{BFF36B5B-3B38-4673-BBDD-FC7B88F94802}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="45">
   <si>
     <t>虚空</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,69 @@
   </si>
   <si>
     <t xml:space="preserve">所有忍者提高80攻击力&amp;法术强度 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个随机的帝国单位造成双倍伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有帝国单位造成双倍伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极地单位的攻击有20%造成2s眩晕效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极地单位的攻击有33%造成2s眩晕效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极地单位的攻击有50%造成2s眩晕效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时，如果一名浪人的邻近格子没有友军，那么该浪人会获得一层等于他生命值100%的护盾。</t>
+  </si>
+  <si>
+    <t>龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有龙单位获得75%的魔法免伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔的普攻有40%几率灼烧目标20法力并为恶魔本身回复30法力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔的普攻有40%几率灼烧目标20法力并为恶魔本身回复15法力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔的普攻有40%几率灼烧目标20法力并为恶魔本身回复45法力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3823CC85-AA6A-472B-81D9-5687040EE568}">
   <dimension ref="A1:XFD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -892,65 +955,165 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+    <row r="11" spans="1:10 16384:16384" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10 16384:16384" ht="56" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10 16384:16384" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10 16384:16384" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10 16384:16384" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:10 16384:16384" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
